--- a/DataDrivenProjectRefine/src/test/resources/testdata/testdata.xlsx
+++ b/DataDrivenProjectRefine/src/test/resources/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\DataDrivenProjectRefine\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCBB9D-FDD5-4174-B226-21CD1D0232B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67906A5F-9630-42DC-9374-BAA11B68DBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B6B486CA-F6C4-4536-B6C7-652B0CAD174E}"/>
   </bookViews>
@@ -34,48 +34,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>santosh@test.in</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Santosh</t>
   </si>
   <si>
-    <t>mohan@test.in</t>
-  </si>
-  <si>
     <t>Mohan</t>
   </si>
   <si>
-    <t>sohan@test.in</t>
-  </si>
-  <si>
     <t>Sohan</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Agarwal</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Pandey</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>sdfsaf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>gdgd</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,16 +117,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B1E61D-64EE-4045-B55B-B5F8191C65A4}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,71 +448,105 @@
     <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>34234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>4234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>424</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>424</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="C7">
+        <v>424</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C556E3B6-FEF0-4CFC-9BA8-A7A6FC7E6AD4}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{848E3906-5369-45BC-B0B2-EDC0AB0A6B54}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{0D609E55-0537-4693-B896-4F9F5E0C2B88}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{FD41D997-F283-4A49-9328-1535EF4B549D}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{B11057D6-4D06-48F3-AA0A-535C737B3A02}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{25557705-0577-4550-A247-9E0624F8A680}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>